--- a/lib/user_import_template.xlsx
+++ b/lib/user_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoiv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoiv\Google Drive (khoivan88@aggienetwork.com)\From Khoi personal computer\Documents\Learning\open_eventory\open_enventory-developed-by-Khoi\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64EA0F-3572-483A-8324-838761A14C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18EC87A-45BE-48B3-BAD8-13D9C1E0B63B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" activeTab="1" xr2:uid="{3B9E381E-B69E-4854-B768-0EA51965DCF7}"/>
+    <workbookView xWindow="1395" yWindow="810" windowWidth="22605" windowHeight="12090" activeTab="1" xr2:uid="{3B9E381E-B69E-4854-B768-0EA51965DCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fill out this form" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,9 +77,6 @@
     <t>6. Use the text file to import into Open Enventory data</t>
   </si>
   <si>
-    <t>5. Save as the excel file (only the "Fill out this form" sheet)  as "tab-delimited text file"</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -101,6 +99,9 @@
   </si>
   <si>
     <t>Password (REQUIRED)</t>
+  </si>
+  <si>
+    <t>5. Save as the excel file (only the "Fill out this form" sheet)    as "Text (tab-delimited) (*.txt)" or "CSV (comma-delimited) (*.csv)"</t>
   </si>
 </sst>
 </file>
@@ -533,28 +534,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -649,7 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832464B3-C945-4F85-A69C-2941DAD880B3}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -701,7 +704,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/lib/user_import_template.xlsx
+++ b/lib/user_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoiv\Google Drive (khoivan88@aggienetwork.com)\From Khoi personal computer\Documents\Learning\open_eventory\open_enventory-developed-by-Khoi\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18EC87A-45BE-48B3-BAD8-13D9C1E0B63B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98C0F0-148A-4BA9-BC58-E5C89DBF52CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="810" windowWidth="22605" windowHeight="12090" activeTab="1" xr2:uid="{3B9E381E-B69E-4854-B768-0EA51965DCF7}"/>
+    <workbookView xWindow="1395" yWindow="1410" windowWidth="22605" windowHeight="12090" activeTab="1" xr2:uid="{3B9E381E-B69E-4854-B768-0EA51965DCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fill out this form" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>permission</t>
   </si>
@@ -50,12 +50,6 @@
     <t>3. For "permission" column, you can choose either "read" or "admin", if left blank, "read" will be the default</t>
   </si>
   <si>
-    <t>"read" : can search and borrow chemical and limited search in lab journal</t>
-  </si>
-  <si>
-    <t>"admin": admin permission for chemical inventory, limited search in lab journal</t>
-  </si>
-  <si>
     <t>4. For "password" column, you can add a default password or leave it blank. You will have the option to add password when importing into OE later</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>2. "Username" and "password" columns are required, the rest can be left empty</t>
   </si>
   <si>
-    <t>6. Use the text file to import into Open Enventory data</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -101,7 +92,25 @@
     <t>Password (REQUIRED)</t>
   </si>
   <si>
-    <t>5. Save as the excel file (only the "Fill out this form" sheet)    as "Text (tab-delimited) (*.txt)" or "CSV (comma-delimited) (*.csv)"</t>
+    <t>5. Save as the excel file (only the "Fill out this form" sheet) as any of the followings:</t>
+  </si>
+  <si>
+    <t>- Excel files (*.xlsx and *.xls)</t>
+  </si>
+  <si>
+    <t>- "CSV (comma-delimited) (*.csv)"</t>
+  </si>
+  <si>
+    <t>- "Text (tab-delimited) (*.txt)"</t>
+  </si>
+  <si>
+    <t>- "read" : can search and borrow chemical and limited search in lab journal</t>
+  </si>
+  <si>
+    <t>- "admin": admin permission for chemical inventory, limited search in lab journal</t>
+  </si>
+  <si>
+    <t>6. Use the file to import into Open Enventory data</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +207,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,31 +545,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -648,15 +659,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832464B3-C945-4F85-A69C-2941DAD880B3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="122.140625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -674,7 +685,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,33 +694,48 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +773,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
